--- a/PublicHealthUnit.xlsx
+++ b/PublicHealthUnit.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,11 @@
           <t>UpdatedDate</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -525,10 +530,13 @@
         <v>-81.25401572</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -567,10 +575,13 @@
         <v>-79.74479581</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -609,10 +620,13 @@
         <v>-79.37935801</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -651,10 +665,13 @@
         <v>-81.00191282999999</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -693,10 +710,13 @@
         <v>-80.2337433</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -735,10 +755,13 @@
         <v>-79.68163199999999</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -777,10 +800,13 @@
         <v>-89.2588508</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -819,10 +845,13 @@
         <v>-79.7088933</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -861,10 +890,13 @@
         <v>-80.99805884</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -903,10 +935,13 @@
         <v>-78.940341</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -945,10 +980,13 @@
         <v>-79.87134089</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -987,10 +1025,13 @@
         <v>-83.0336705</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1029,10 +1070,13 @@
         <v>-80.52091315</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1071,10 +1115,13 @@
         <v>-79.68630597000001</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1113,10 +1160,13 @@
         <v>-81.15115646</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1155,10 +1205,13 @@
         <v>-84.3148358</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1197,10 +1250,13 @@
         <v>-75.70283308</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1239,10 +1295,13 @@
         <v>-77.39144554000001</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1281,10 +1340,13 @@
         <v>-79.46784049999999</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1323,10 +1385,13 @@
         <v>-79.480239</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1365,10 +1430,13 @@
         <v>-94.48825435000001</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1407,10 +1475,13 @@
         <v>-78.32134748</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1449,10 +1520,13 @@
         <v>-80.94097993</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1491,10 +1565,13 @@
         <v>-76.5252108</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1533,10 +1610,13 @@
         <v>-81.32875</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1575,10 +1655,13 @@
         <v>-77.11872700000001</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1617,10 +1700,13 @@
         <v>-75.76391219999999</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1659,10 +1745,13 @@
         <v>-80.27437415</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1701,10 +1790,13 @@
         <v>-80.30381491</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1743,10 +1835,13 @@
         <v>-78.28579239</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1785,10 +1880,13 @@
         <v>-79.2412197</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1827,10 +1925,13 @@
         <v>-74.73629778999999</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1869,10 +1970,13 @@
         <v>-82.40480836</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1911,10 +2015,13 @@
         <v>-82.208561</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>44888.48092231898</v>
+        <v>44888.48092231481</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>44888.48092233652</v>
+        <v>44888.48092233796</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
